--- a/src/main/resources/files/MetronetTB.xlsx
+++ b/src/main/resources/files/MetronetTB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yogenderbutola/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yogenderbutola/work/commercial/report/src/main/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D3B5FE-D3B7-B64B-80E5-4C4271D9CD04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FEC055-BAE8-4240-8B61-52C83D9E1AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1300" windowWidth="21700" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20940" yWindow="500" windowWidth="21700" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
